--- a/biology/Botanique/Nepenthes_rafflesiana/Nepenthes_rafflesiana.xlsx
+++ b/biology/Botanique/Nepenthes_rafflesiana/Nepenthes_rafflesiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nepenthes rafflesiana est une espèce de plantes à fleurs de la famille des Nepenthaceae. C'est une plante carnivore de basse altitude qui pousse en zone humide.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tige de cette liane épiphyte atteint 4 m voire 15 m. Les urnes (feuilles modifiées en piège-trou) de dimensions variables peuvent atteindre 30 cm de haut pour 10 cm de large.
-Des ailes qui partent de la vrille sont spécifique à la plante[1].
+Des ailes qui partent de la vrille sont spécifique à la plante.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les urnes situées le plus haut dans la canopée émettent des composés organiques volatils similaires à ceux produites par des fleurs (phénomène de mimétisme olfactif (en)). « C’est toute une guilde d’insectes normalement pollinivores ou nectarivores qui peuvent ainsi être trompés et digérés dans le liquide des urnes-pièges[2] ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les urnes situées le plus haut dans la canopée émettent des composés organiques volatils similaires à ceux produites par des fleurs (phénomène de mimétisme olfactif (en)). « C’est toute une guilde d’insectes normalement pollinivores ou nectarivores qui peuvent ainsi être trompés et digérés dans le liquide des urnes-pièges ».
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le retrouve sur les îles d'Indonésie : Bornéo, Sumatra le plus souvent.
 </t>
